--- a/test.xlsx
+++ b/test.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
